--- a/extra/word_vector/word_vector_topic_v2_number.xlsx
+++ b/extra/word_vector/word_vector_topic_v2_number.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tesum\workspace\GYH\extra\word_vector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12DE53A7-A28A-4708-A9A3-C9D0C90F1DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A4E628-145A-4FEE-8498-11B1120269B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DDDD6021-F3D3-418B-97EC-54D3336C6369}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8880" xr2:uid="{DDDD6021-F3D3-418B-97EC-54D3336C6369}"/>
   </bookViews>
   <sheets>
     <sheet name="Topic_number" sheetId="2" r:id="rId1"/>
@@ -443,8 +443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C71FD1CB-3DF5-42B8-8852-A6B436C40AAF}">
   <dimension ref="A1:J111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="J88" sqref="J88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1972,29 +1972,27 @@
         <v>89</v>
       </c>
       <c r="C88" s="3">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D88" s="3">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E88" s="3">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F88" s="3">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G88" s="3">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H88" s="3">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I88" s="3">
-        <v>199</v>
-      </c>
-      <c r="J88" s="3">
         <v>200</v>
       </c>
+      <c r="J88" s="3"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A89" s="1">
